--- a/Assets/TQGAssets/Resources/Excel/Excel10Answers.xlsx
+++ b/Assets/TQGAssets/Resources/Excel/Excel10Answers.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\@WORKS\@COLLABORATION\Trivia Quiz Template all versions\TQG Version 186\TQG 186 Unity 550\Assets\TQGAssets\Resources\Excell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DRAKE\Documents\PROJECTS\GAME\UNITY\Spaceal\Assets\TQGAssets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76143CDD-7DA8-4690-BE52-0FFB1C6D2083}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9885" windowHeight="12360"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +20,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="XML6Answers" type="4" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="XML6Answers" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Majd\Desktop\XML6Answers.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>Question</t>
   </si>
@@ -129,12 +130,24 @@
   </si>
   <si>
     <t>correct9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dasdasdasdas</t>
+  </si>
+  <si>
+    <t>This is an dasdasdas</t>
+  </si>
+  <si>
+    <t>This is adasdasdasn answer</t>
+  </si>
+  <si>
+    <t>This is dasdasdasan answer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -310,103 +323,103 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AF3" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:AF3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AF3" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:AF3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="32">
-    <tableColumn id="1" uniqueName="Question" name="Question">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="Question" name="Question">
       <xmlColumnPr mapId="1" xpath="/data-set/record/Question" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Image" name="Image">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="Image" name="Image">
       <xmlColumnPr mapId="1" xpath="/data-set/record/Image" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="Video" name="Video">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="Video" name="Video">
       <xmlColumnPr mapId="1" xpath="/data-set/record/Video" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="Answer1" name="Answer1">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="Answer1" name="Answer1">
       <xmlColumnPr mapId="1" xpath="/data-set/record/Answers/Answer1" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="image" name="image1">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="image" name="image1">
       <xmlColumnPr mapId="1" xpath="/data-set/record/Answers/Answer1/@image" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="correct" name="correct">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="correct" name="correct">
       <xmlColumnPr mapId="1" xpath="/data-set/record/Answers/Answer1/@correct" xmlDataType="boolean"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="Answer2" name="Answer2">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="Answer2" name="Answer2">
       <xmlColumnPr mapId="1" xpath="/data-set/record/Answers/Answer2" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="image" name="image2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="image" name="image2">
       <xmlColumnPr mapId="1" xpath="/data-set/record/Answers/Answer2/@image" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="correct" name="correct2">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="correct" name="correct2">
       <xmlColumnPr mapId="1" xpath="/data-set/record/Answers/Answer2/@correct" xmlDataType="boolean"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="Answer3" name="Answer3">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="Answer3" name="Answer3">
       <xmlColumnPr mapId="1" xpath="/data-set/record/Answers/Answer3" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="image" name="image3">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="image" name="image3">
       <xmlColumnPr mapId="1" xpath="/data-set/record/Answers/Answer3/@image" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="correct" name="correct3">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="correct" name="correct3">
       <xmlColumnPr mapId="1" xpath="/data-set/record/Answers/Answer3/@correct" xmlDataType="boolean"/>
     </tableColumn>
-    <tableColumn id="13" uniqueName="Answer4" name="Answer4">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="Answer4" name="Answer4">
       <xmlColumnPr mapId="1" xpath="/data-set/record/Answers/Answer4" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="14" uniqueName="image" name="image4">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="image" name="image4">
       <xmlColumnPr mapId="1" xpath="/data-set/record/Answers/Answer4/@image" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="15" uniqueName="correct" name="correct4">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" uniqueName="correct" name="correct4">
       <xmlColumnPr mapId="1" xpath="/data-set/record/Answers/Answer4/@correct" xmlDataType="boolean"/>
     </tableColumn>
-    <tableColumn id="16" uniqueName="Answer5" name="Answer5">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" uniqueName="Answer5" name="Answer5">
       <xmlColumnPr mapId="1" xpath="/data-set/record/Answers/Answer5" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="17" uniqueName="image" name="image5">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" uniqueName="image" name="image5">
       <xmlColumnPr mapId="1" xpath="/data-set/record/Answers/Answer5/@image" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="correct" name="correct5">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="correct" name="correct5">
       <xmlColumnPr mapId="1" xpath="/data-set/record/Answers/Answer5/@correct" xmlDataType="boolean"/>
     </tableColumn>
-    <tableColumn id="19" uniqueName="Answer6" name="Answer6">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" uniqueName="Answer6" name="Answer6">
       <xmlColumnPr mapId="1" xpath="/data-set/record/Answers/Answer6" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="20" uniqueName="image" name="image6">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" uniqueName="image" name="image6">
       <xmlColumnPr mapId="1" xpath="/data-set/record/Answers/Answer6/@image" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="21" uniqueName="correct" name="correct6">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" uniqueName="correct" name="correct6">
       <xmlColumnPr mapId="1" xpath="/data-set/record/Answers/Answer6/@correct" xmlDataType="boolean"/>
     </tableColumn>
-    <tableColumn id="22" uniqueName="Answer7" name="Answer7">
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" uniqueName="Answer7" name="Answer7">
       <xmlColumnPr mapId="1" xpath="/data-set/record/Answers/Answer7" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="23" uniqueName="image" name="image7">
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" uniqueName="image" name="image7">
       <xmlColumnPr mapId="1" xpath="/data-set/record/Answers/Answer7/@image" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="24" uniqueName="correct" name="correct7">
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" uniqueName="correct" name="correct7">
       <xmlColumnPr mapId="1" xpath="/data-set/record/Answers/Answer7/@correct" xmlDataType="boolean"/>
     </tableColumn>
-    <tableColumn id="25" uniqueName="Answer8" name="Answer8">
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" uniqueName="Answer8" name="Answer8">
       <xmlColumnPr mapId="1" xpath="/data-set/record/Answers/Answer8" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="26" uniqueName="image" name="image8">
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" uniqueName="image" name="image8">
       <xmlColumnPr mapId="1" xpath="/data-set/record/Answers/Answer8/@image" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="27" uniqueName="correct" name="correct8">
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" uniqueName="correct" name="correct8">
       <xmlColumnPr mapId="1" xpath="/data-set/record/Answers/Answer8/@correct" xmlDataType="boolean"/>
     </tableColumn>
-    <tableColumn id="28" uniqueName="Answer9" name="Answer9">
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" uniqueName="Answer9" name="Answer9">
       <xmlColumnPr mapId="1" xpath="/data-set/record/Answers/Answer9" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="29" uniqueName="image" name="image9">
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" uniqueName="image" name="image9">
       <xmlColumnPr mapId="1" xpath="/data-set/record/Answers/Answer9/@image" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="30" uniqueName="correct" name="correct9">
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" uniqueName="correct" name="correct9">
       <xmlColumnPr mapId="1" xpath="/data-set/record/Answers/Answer9/@correct" xmlDataType="boolean"/>
     </tableColumn>
-    <tableColumn id="31" uniqueName="Bonus" name="Bonus">
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" uniqueName="Bonus" name="Bonus">
       <xmlColumnPr mapId="1" xpath="/data-set/record/Bonus" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="32" uniqueName="Time" name="Time">
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" uniqueName="Time" name="Time">
       <xmlColumnPr mapId="1" xpath="/data-set/record/Time" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
@@ -676,50 +689,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="16" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="16" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="16" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -817,14 +830,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" t="b">
@@ -893,21 +906,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" t="b">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" t="b">
